--- a/post/渗透率测试.xlsx
+++ b/post/渗透率测试.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="液体" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="压强梯度-弥散系数" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="压强梯度-弥散系数" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +198,46 @@
     <t>平均速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>实验编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-3200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-6400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径(nm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透率计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -741,13 +782,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +1045,69 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,68 +1123,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,35 +1477,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="70" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="70" t="s">
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="72"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -1430,17 +1556,17 @@
       <c r="P2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="88" t="s">
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="83" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1511,10 +1637,10 @@
       <c r="U3" s="17">
         <v>1.3524E-17</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="89"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
@@ -1583,10 +1709,10 @@
       <c r="U4" s="4">
         <v>1.3499E-17</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="85"/>
+      <c r="W4" s="80"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -1655,10 +1781,10 @@
       <c r="U5" s="4">
         <v>1.3487999999999999E-17</v>
       </c>
-      <c r="V5" s="76" t="s">
+      <c r="V5" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="85"/>
+      <c r="W5" s="80"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1727,10 +1853,10 @@
       <c r="U6" s="9">
         <v>1.3500999999999999E-17</v>
       </c>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="87"/>
+      <c r="W6" s="82"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
@@ -1799,10 +1925,10 @@
       <c r="U7" s="17">
         <v>1.3407E-17</v>
       </c>
-      <c r="V7" s="75" t="s">
+      <c r="V7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="89"/>
+      <c r="W7" s="84"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -1871,10 +1997,10 @@
       <c r="U8" s="4">
         <v>1.3637000000000001E-17</v>
       </c>
-      <c r="V8" s="76" t="s">
+      <c r="V8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="85"/>
+      <c r="W8" s="80"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
@@ -1943,10 +2069,10 @@
       <c r="U9" s="4">
         <v>1.3466000000000001E-17</v>
       </c>
-      <c r="V9" s="76" t="s">
+      <c r="V9" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="85"/>
+      <c r="W9" s="80"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -2015,10 +2141,10 @@
       <c r="U10" s="9">
         <v>1.3499E-17</v>
       </c>
-      <c r="V10" s="77" t="s">
+      <c r="V10" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="87"/>
+      <c r="W10" s="82"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
@@ -2087,10 +2213,10 @@
       <c r="U11" s="17">
         <v>1.3384000000000001E-17</v>
       </c>
-      <c r="V11" s="78">
+      <c r="V11" s="73">
         <v>6.0927000000000001E-10</v>
       </c>
-      <c r="W11" s="91">
+      <c r="W11" s="86">
         <v>5.7361999999999995E-4</v>
       </c>
     </row>
@@ -2161,10 +2287,10 @@
       <c r="U12" s="4">
         <v>5.1556999999999998E-17</v>
       </c>
-      <c r="V12" s="79">
+      <c r="V12" s="74">
         <v>2.5446000000000001E-9</v>
       </c>
-      <c r="W12" s="86">
+      <c r="W12" s="81">
         <v>1.1088000000000001E-3</v>
       </c>
     </row>
@@ -2235,10 +2361,10 @@
       <c r="U13" s="4">
         <v>2.0311000000000001E-16</v>
       </c>
-      <c r="V13" s="79">
+      <c r="V13" s="74">
         <v>9.8928999999999992E-9</v>
       </c>
-      <c r="W13" s="86">
+      <c r="W13" s="81">
         <v>2.1927000000000001E-3</v>
       </c>
     </row>
@@ -2309,10 +2435,10 @@
       <c r="U14" s="4">
         <v>8.0501000000000004E-16</v>
       </c>
-      <c r="V14" s="79">
+      <c r="V14" s="74">
         <v>4.0153000000000002E-8</v>
       </c>
-      <c r="W14" s="86">
+      <c r="W14" s="81">
         <v>4.3578999999999996E-3</v>
       </c>
     </row>
@@ -2383,10 +2509,10 @@
       <c r="U15" s="4">
         <v>3.1883999999999999E-15</v>
       </c>
-      <c r="V15" s="79">
+      <c r="V15" s="74">
         <v>1.5732999999999999E-7</v>
       </c>
-      <c r="W15" s="86">
+      <c r="W15" s="81">
         <v>8.6955000000000001E-3</v>
       </c>
     </row>
@@ -2457,10 +2583,10 @@
       <c r="U16" s="4">
         <v>1.2723999999999999E-14</v>
       </c>
-      <c r="V16" s="79">
+      <c r="V16" s="74">
         <v>6.4125999999999996E-7</v>
       </c>
-      <c r="W16" s="86">
+      <c r="W16" s="81">
         <v>1.7357999999999998E-2</v>
       </c>
     </row>
@@ -2531,10 +2657,10 @@
       <c r="U17" s="9">
         <v>5.0605999999999999E-14</v>
       </c>
-      <c r="V17" s="80">
+      <c r="V17" s="75">
         <v>2.5691000000000001E-6</v>
       </c>
-      <c r="W17" s="92">
+      <c r="W17" s="87">
         <v>3.4680999999999997E-2</v>
       </c>
     </row>
@@ -2605,10 +2731,10 @@
       <c r="U18" s="13">
         <v>1.2568E-17</v>
       </c>
-      <c r="V18" s="81">
+      <c r="V18" s="76">
         <v>6.4696000000000001E-10</v>
       </c>
-      <c r="W18" s="90">
+      <c r="W18" s="85">
         <v>5.4390999999999999E-4</v>
       </c>
     </row>
@@ -2679,10 +2805,10 @@
       <c r="U19" s="4">
         <v>1.2627999999999999E-17</v>
       </c>
-      <c r="V19" s="79">
+      <c r="V19" s="74">
         <v>6.1584000000000002E-10</v>
       </c>
-      <c r="W19" s="86">
+      <c r="W19" s="81">
         <v>5.4602999999999997E-4</v>
       </c>
     </row>
@@ -2753,10 +2879,10 @@
       <c r="U20" s="4">
         <v>1.2824E-17</v>
       </c>
-      <c r="V20" s="79">
+      <c r="V20" s="74">
         <v>6.2232999999999996E-10</v>
       </c>
-      <c r="W20" s="86">
+      <c r="W20" s="81">
         <v>5.5181999999999996E-4</v>
       </c>
     </row>
@@ -2827,10 +2953,10 @@
       <c r="U21" s="4">
         <v>1.3348E-17</v>
       </c>
-      <c r="V21" s="79">
+      <c r="V21" s="74">
         <v>6.2324999999999999E-10</v>
       </c>
-      <c r="W21" s="86">
+      <c r="W21" s="81">
         <v>5.6479999999999996E-4</v>
       </c>
     </row>
@@ -2901,10 +3027,10 @@
       <c r="U22" s="4">
         <v>1.3953E-17</v>
       </c>
-      <c r="V22" s="79">
+      <c r="V22" s="74">
         <v>6.1199999999999995E-10</v>
       </c>
-      <c r="W22" s="86">
+      <c r="W22" s="81">
         <v>5.821E-4</v>
       </c>
     </row>
@@ -2975,10 +3101,10 @@
       <c r="U23" s="4">
         <v>1.4362000000000001E-17</v>
       </c>
-      <c r="V23" s="79">
+      <c r="V23" s="74">
         <v>6.3060999999999996E-10</v>
       </c>
-      <c r="W23" s="86">
+      <c r="W23" s="81">
         <v>6.0203000000000003E-4</v>
       </c>
     </row>
@@ -3049,10 +3175,10 @@
       <c r="U24" s="4">
         <v>1.4695999999999999E-17</v>
       </c>
-      <c r="V24" s="79">
+      <c r="V24" s="74">
         <v>6.2915000000000005E-10</v>
       </c>
-      <c r="W24" s="86">
+      <c r="W24" s="81">
         <v>6.2688999999999996E-4</v>
       </c>
     </row>
@@ -3123,10 +3249,10 @@
       <c r="U25" s="4">
         <v>1.5987E-17</v>
       </c>
-      <c r="V25" s="79">
+      <c r="V25" s="74">
         <v>6.2754999999999997E-10</v>
       </c>
-      <c r="W25" s="86">
+      <c r="W25" s="81">
         <v>6.5892000000000001E-4</v>
       </c>
     </row>
@@ -3197,10 +3323,10 @@
       <c r="U26" s="4">
         <v>1.6704999999999999E-17</v>
       </c>
-      <c r="V26" s="79">
+      <c r="V26" s="74">
         <v>6.8070000000000004E-10</v>
       </c>
-      <c r="W26" s="86">
+      <c r="W26" s="81">
         <v>6.9309000000000005E-4</v>
       </c>
     </row>
@@ -3271,10 +3397,10 @@
       <c r="U27" s="35">
         <v>1.7322999999999999E-17</v>
       </c>
-      <c r="V27" s="82">
+      <c r="V27" s="77">
         <v>7.3124000000000005E-10</v>
       </c>
-      <c r="W27" s="93">
+      <c r="W27" s="88">
         <v>7.3468999999999997E-4</v>
       </c>
     </row>
@@ -3345,10 +3471,10 @@
       <c r="U28" s="17">
         <v>8.4037999999999996E-17</v>
       </c>
-      <c r="V28" s="78">
+      <c r="V28" s="73">
         <v>1.3331999999999999E-9</v>
       </c>
-      <c r="W28" s="91">
+      <c r="W28" s="86">
         <v>1.2765000000000001E-3</v>
       </c>
     </row>
@@ -3419,10 +3545,10 @@
       <c r="U29" s="4">
         <v>6.8439000000000004E-17</v>
       </c>
-      <c r="V29" s="79">
+      <c r="V29" s="74">
         <v>1.2022E-9</v>
       </c>
-      <c r="W29" s="86">
+      <c r="W29" s="81">
         <v>1.1428E-3</v>
       </c>
     </row>
@@ -3493,10 +3619,10 @@
       <c r="U30" s="4">
         <v>4.2443000000000001E-17</v>
       </c>
-      <c r="V30" s="79">
+      <c r="V30" s="74">
         <v>9.6259999999999996E-10</v>
       </c>
-      <c r="W30" s="86">
+      <c r="W30" s="81">
         <v>8.9787000000000005E-4</v>
       </c>
     </row>
@@ -3567,10 +3693,10 @@
       <c r="U31" s="4">
         <v>1.703E-17</v>
       </c>
-      <c r="V31" s="79">
+      <c r="V31" s="74">
         <v>5.9567999999999995E-10</v>
       </c>
-      <c r="W31" s="86">
+      <c r="W31" s="81">
         <v>5.7341E-4</v>
       </c>
     </row>
@@ -3641,10 +3767,10 @@
       <c r="U32" s="4">
         <v>1.0878E-17</v>
       </c>
-      <c r="V32" s="79">
+      <c r="V32" s="74">
         <v>5.3178999999999998E-10</v>
       </c>
-      <c r="W32" s="86">
+      <c r="W32" s="81">
         <v>5.1986999999999997E-4</v>
       </c>
     </row>
@@ -3715,10 +3841,10 @@
       <c r="U33" s="4">
         <v>6.5177000000000004E-18</v>
       </c>
-      <c r="V33" s="79">
+      <c r="V33" s="74">
         <v>3.5662999999999999E-10</v>
       </c>
-      <c r="W33" s="86">
+      <c r="W33" s="81">
         <v>4.192E-4</v>
       </c>
     </row>
@@ -3789,10 +3915,10 @@
       <c r="U34" s="4">
         <v>3.7936000000000004E-18</v>
       </c>
-      <c r="V34" s="79">
+      <c r="V34" s="74">
         <v>2.4561999999999997E-10</v>
       </c>
-      <c r="W34" s="86">
+      <c r="W34" s="81">
         <v>3.3032999999999999E-4</v>
       </c>
     </row>
@@ -3863,10 +3989,10 @@
       <c r="U35" s="4">
         <v>2.0816000000000002E-18</v>
       </c>
-      <c r="V35" s="79">
+      <c r="V35" s="74">
         <v>1.7411000000000001E-10</v>
       </c>
-      <c r="W35" s="86">
+      <c r="W35" s="81">
         <v>2.5326E-4</v>
       </c>
     </row>
@@ -3937,10 +4063,10 @@
       <c r="U36" s="4">
         <v>1.0877999999999999E-18</v>
       </c>
-      <c r="V36" s="79">
+      <c r="V36" s="74">
         <v>1.2227999999999999E-10</v>
       </c>
-      <c r="W36" s="86">
+      <c r="W36" s="81">
         <v>1.8761E-4</v>
       </c>
     </row>
@@ -4011,10 +4137,10 @@
       <c r="U37" s="9">
         <v>5.5836999999999996E-19</v>
       </c>
-      <c r="V37" s="80">
+      <c r="V37" s="75">
         <v>8.8001000000000002E-11</v>
       </c>
-      <c r="W37" s="92">
+      <c r="W37" s="87">
         <v>1.3750000000000001E-4</v>
       </c>
     </row>
@@ -4085,10 +4211,10 @@
       <c r="U38" s="13">
         <v>1.219E-18</v>
       </c>
-      <c r="V38" s="83" t="s">
+      <c r="V38" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="W38" s="90"/>
+      <c r="W38" s="85"/>
     </row>
     <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
@@ -4157,10 +4283,10 @@
       <c r="U39" s="4">
         <v>5.2076999999999996E-18</v>
       </c>
-      <c r="V39" s="79">
+      <c r="V39" s="74">
         <v>7.8179000000000005E-10</v>
       </c>
-      <c r="W39" s="86"/>
+      <c r="W39" s="81"/>
     </row>
     <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
@@ -4229,10 +4355,10 @@
       <c r="U40" s="4">
         <v>1.0405E-17</v>
       </c>
-      <c r="V40" s="79">
+      <c r="V40" s="74">
         <v>3.6414999999999998E-10</v>
       </c>
-      <c r="W40" s="86"/>
+      <c r="W40" s="81"/>
     </row>
     <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="55">
@@ -4301,10 +4427,10 @@
       <c r="U41" s="35">
         <v>1.3391999999999999E-17</v>
       </c>
-      <c r="V41" s="82">
+      <c r="V41" s="77">
         <v>4.7612000000000001E-10</v>
       </c>
-      <c r="W41" s="86"/>
+      <c r="W41" s="81"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A42" s="55">
@@ -4373,10 +4499,10 @@
       <c r="U42" s="35">
         <v>5.0834000000000002E-18</v>
       </c>
-      <c r="V42" s="84">
+      <c r="V42" s="79">
         <v>8.3831999999999995E-10</v>
       </c>
-      <c r="W42" s="86">
+      <c r="W42" s="81">
         <v>6.3246000000000005E-4</v>
       </c>
     </row>
@@ -4447,10 +4573,10 @@
       <c r="U43" s="35">
         <v>8.3894999999999999E-18</v>
       </c>
-      <c r="V43" s="84">
+      <c r="V43" s="79">
         <v>3.9926000000000003E-10</v>
       </c>
-      <c r="W43" s="86">
+      <c r="W43" s="81">
         <v>7.4848000000000004E-4</v>
       </c>
     </row>
@@ -4521,10 +4647,10 @@
       <c r="U44" s="35">
         <v>1.0193E-17</v>
       </c>
-      <c r="V44" s="82">
+      <c r="V44" s="77">
         <v>3.6166000000000002E-10</v>
       </c>
-      <c r="W44" s="86">
+      <c r="W44" s="81">
         <v>7.6214000000000002E-4</v>
       </c>
     </row>
@@ -4595,10 +4721,10 @@
       <c r="U45" s="35">
         <v>1.1878E-17</v>
       </c>
-      <c r="V45" s="82">
+      <c r="V45" s="77">
         <v>3.5210999999999999E-10</v>
       </c>
-      <c r="W45" s="86">
+      <c r="W45" s="81">
         <v>7.4321000000000001E-4</v>
       </c>
     </row>
@@ -4669,10 +4795,10 @@
       <c r="U46" s="35">
         <v>1.2511999999999999E-17</v>
       </c>
-      <c r="V46" s="82">
+      <c r="V46" s="77">
         <v>3.8109000000000003E-10</v>
       </c>
-      <c r="W46" s="86">
+      <c r="W46" s="81">
         <v>7.0688999999999995E-4</v>
       </c>
     </row>
@@ -4743,10 +4869,10 @@
       <c r="U47" s="35">
         <v>1.3128E-17</v>
       </c>
-      <c r="V47" s="82">
+      <c r="V47" s="77">
         <v>4.0778999999999999E-10</v>
       </c>
-      <c r="W47" s="86">
+      <c r="W47" s="81">
         <v>6.7155000000000003E-4</v>
       </c>
     </row>
@@ -4817,10 +4943,10 @@
       <c r="U48" s="35">
         <v>1.3016000000000001E-17</v>
       </c>
-      <c r="V48" s="82">
+      <c r="V48" s="77">
         <v>4.7811000000000002E-10</v>
       </c>
-      <c r="W48" s="93">
+      <c r="W48" s="88">
         <v>6.3511000000000004E-4</v>
       </c>
     </row>
@@ -4891,10 +5017,10 @@
       <c r="U49" s="17">
         <v>1.2954000000000001E-17</v>
       </c>
-      <c r="V49" s="78">
+      <c r="V49" s="73">
         <v>4.0232000000000001E-10</v>
       </c>
-      <c r="W49" s="91">
+      <c r="W49" s="86">
         <v>6.8917999999999996E-4</v>
       </c>
     </row>
@@ -4965,10 +5091,10 @@
       <c r="U50" s="4">
         <v>1.2936E-17</v>
       </c>
-      <c r="V50" s="79">
+      <c r="V50" s="74">
         <v>4.0977000000000002E-10</v>
       </c>
-      <c r="W50" s="86">
+      <c r="W50" s="81">
         <v>6.8853999999999996E-4</v>
       </c>
     </row>
@@ -5039,10 +5165,10 @@
       <c r="U51" s="4">
         <v>1.3097E-17</v>
       </c>
-      <c r="V51" s="79">
+      <c r="V51" s="74">
         <v>4.1959999999999998E-10</v>
       </c>
-      <c r="W51" s="86">
+      <c r="W51" s="81">
         <v>6.8650999999999998E-4</v>
       </c>
     </row>
@@ -5113,10 +5239,10 @@
       <c r="U52" s="9">
         <v>1.2876E-17</v>
       </c>
-      <c r="V52" s="80">
+      <c r="V52" s="75">
         <v>4.3326999999999999E-10</v>
       </c>
-      <c r="W52" s="92">
+      <c r="W52" s="87">
         <v>6.8608000000000004E-4</v>
       </c>
     </row>
@@ -5187,10 +5313,10 @@
       <c r="U53" s="17">
         <v>1.5712E-18</v>
       </c>
-      <c r="V53" s="78">
+      <c r="V53" s="73">
         <v>4.6761999999999998E-10</v>
       </c>
-      <c r="W53" s="90">
+      <c r="W53" s="85">
         <v>1.7876E-4</v>
       </c>
     </row>
@@ -5261,10 +5387,10 @@
       <c r="U54" s="13">
         <v>5.5445999999999998E-18</v>
       </c>
-      <c r="V54" s="81">
+      <c r="V54" s="76">
         <v>5.3573999999999995E-10</v>
       </c>
-      <c r="W54" s="86">
+      <c r="W54" s="81">
         <v>3.5201999999999998E-4</v>
       </c>
     </row>
@@ -5335,10 +5461,10 @@
       <c r="U55" s="4">
         <v>1.3439000000000001E-17</v>
       </c>
-      <c r="V55" s="79">
+      <c r="V55" s="74">
         <v>6.1638E-10</v>
       </c>
-      <c r="W55" s="86">
+      <c r="W55" s="81">
         <v>5.7333000000000004E-4</v>
       </c>
     </row>
@@ -5409,10 +5535,10 @@
       <c r="U56" s="4">
         <v>2.4069999999999999E-17</v>
       </c>
-      <c r="V56" s="79">
+      <c r="V56" s="74">
         <v>6.8520999999999995E-10</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="81">
         <v>7.9611999999999999E-4</v>
       </c>
     </row>
@@ -5483,10 +5609,10 @@
       <c r="U57" s="4">
         <v>3.7367000000000002E-17</v>
       </c>
-      <c r="V57" s="79">
+      <c r="V57" s="74">
         <v>7.3813000000000001E-10</v>
       </c>
-      <c r="W57" s="86">
+      <c r="W57" s="81">
         <v>1.0303000000000001E-3</v>
       </c>
     </row>
@@ -5557,10 +5683,10 @@
       <c r="U58" s="4">
         <v>5.4592999999999999E-17</v>
       </c>
-      <c r="V58" s="79">
+      <c r="V58" s="74">
         <v>8.6319999999999998E-10</v>
       </c>
-      <c r="W58" s="86">
+      <c r="W58" s="81">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
@@ -5631,10 +5757,10 @@
       <c r="U59" s="4">
         <v>7.7528000000000002E-17</v>
       </c>
-      <c r="V59" s="79">
+      <c r="V59" s="74">
         <v>9.5340999999999992E-10</v>
       </c>
-      <c r="W59" s="86">
+      <c r="W59" s="81">
         <v>1.6077000000000001E-3</v>
       </c>
     </row>
@@ -5705,10 +5831,10 @@
       <c r="U60" s="35">
         <v>1.0865E-16</v>
       </c>
-      <c r="V60" s="82">
+      <c r="V60" s="77">
         <v>1.0789000000000001E-9</v>
       </c>
-      <c r="W60" s="86">
+      <c r="W60" s="81">
         <v>1.9897999999999999E-3</v>
       </c>
     </row>
@@ -5779,10 +5905,10 @@
       <c r="U61" s="35">
         <v>1.5365999999999999E-16</v>
       </c>
-      <c r="V61" s="82">
+      <c r="V61" s="77">
         <v>1.7174000000000001E-9</v>
       </c>
-      <c r="W61" s="93">
+      <c r="W61" s="88">
         <v>2.9764000000000001E-3</v>
       </c>
     </row>
@@ -5853,10 +5979,10 @@
       <c r="U62" s="17">
         <v>1.3456E-17</v>
       </c>
-      <c r="V62" s="75" t="s">
+      <c r="V62" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="W62" s="89"/>
+      <c r="W62" s="84"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
@@ -5925,10 +6051,10 @@
       <c r="U63" s="4">
         <v>1.3479E-17</v>
       </c>
-      <c r="V63" s="76" t="s">
+      <c r="V63" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="W63" s="85"/>
+      <c r="W63" s="80"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
@@ -5997,10 +6123,10 @@
       <c r="U64" s="4">
         <v>1.3405999999999999E-17</v>
       </c>
-      <c r="V64" s="76" t="s">
+      <c r="V64" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="W64" s="85"/>
+      <c r="W64" s="80"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
@@ -6069,10 +6195,10 @@
       <c r="U65" s="4">
         <v>1.3424E-17</v>
       </c>
-      <c r="V65" s="76" t="s">
+      <c r="V65" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="W65" s="85"/>
+      <c r="W65" s="80"/>
     </row>
     <row r="66" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
@@ -6141,10 +6267,10 @@
       <c r="U66" s="9">
         <v>1.3629E-17</v>
       </c>
-      <c r="V66" s="77" t="s">
+      <c r="V66" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="W66" s="87"/>
+      <c r="W66" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6161,6 +6287,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="96">
+        <v>100</v>
+      </c>
+      <c r="C2" s="97">
+        <v>1.35158E-17</v>
+      </c>
+      <c r="D2" s="98">
+        <v>9.5054510676768596E-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="100">
+        <v>200</v>
+      </c>
+      <c r="C3" s="101">
+        <v>5.1598400000000001E-17</v>
+      </c>
+      <c r="D3" s="45">
+        <v>1.6629323497965862E-19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="100">
+        <v>400</v>
+      </c>
+      <c r="C4" s="101">
+        <v>2.02548E-16</v>
+      </c>
+      <c r="D4" s="45">
+        <v>4.8325562593724539E-19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="100">
+        <v>800</v>
+      </c>
+      <c r="C5" s="101">
+        <v>8.0275800000000002E-16</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1.9150080939776758E-18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="100">
+        <v>1600</v>
+      </c>
+      <c r="C6" s="101">
+        <v>3.1923000000000002E-15</v>
+      </c>
+      <c r="D6" s="45">
+        <v>6.8754636207313708E-18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="100">
+        <v>3200</v>
+      </c>
+      <c r="C7" s="101">
+        <v>1.2760599999999998E-14</v>
+      </c>
+      <c r="D7" s="45">
+        <v>4.2668958271792952E-17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="103">
+        <v>6400</v>
+      </c>
+      <c r="C8" s="104">
+        <v>5.0896799999999998E-14</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1.8226069241611145E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6617,7 +6875,7 @@
       <c r="C32" s="58">
         <v>40.9</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="68">
         <v>0</v>
       </c>
     </row>
@@ -6631,7 +6889,7 @@
       <c r="C33" s="58">
         <v>40.4</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="68">
         <v>0</v>
       </c>
     </row>
@@ -6645,7 +6903,7 @@
       <c r="C34" s="58">
         <v>40.1</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="68">
         <v>0</v>
       </c>
     </row>
@@ -6907,7 +7165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>

--- a/post/渗透率测试.xlsx
+++ b/post/渗透率测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="液体" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,39 +203,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R-100</t>
+    <t>P-02-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R-200</t>
+    <t>P-03-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R-400</t>
+    <t>P-05-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R-800</t>
+    <t>P-09-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R-1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-3200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-6400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半径(nm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渗透率计算</t>
+    <t>P-17-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -795,52 +779,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1056,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,38 +1080,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O62" activeCellId="3" sqref="J2:L2 O2:P2 J62:L66 O62:P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1477,35 +1404,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="91" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="91" t="s">
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="93"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -1556,13 +1483,13 @@
       <c r="P2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="89" t="s">
+      <c r="Q2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="94"/>
       <c r="V2" s="69" t="s">
         <v>20</v>
       </c>
@@ -6287,127 +6214,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="96">
-        <v>100</v>
-      </c>
-      <c r="C2" s="97">
-        <v>1.35158E-17</v>
-      </c>
-      <c r="D2" s="98">
-        <v>9.5054510676768596E-20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="99" t="s">
+      <c r="B2" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1.3529800000000002E-17</v>
+      </c>
+      <c r="F2" s="16">
+        <v>6.8787789614145871E-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="100">
-        <v>200</v>
-      </c>
-      <c r="C3" s="101">
-        <v>5.1598400000000001E-17</v>
-      </c>
-      <c r="D3" s="45">
-        <v>1.6629323497965862E-19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="99" t="s">
+      <c r="B3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1.35192E-17</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.0416554022883486E-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="100">
-        <v>400</v>
-      </c>
-      <c r="C4" s="101">
-        <v>2.02548E-16</v>
-      </c>
-      <c r="D4" s="45">
-        <v>4.8325562593724539E-19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1.3472799999999998E-17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.1658106817807475E-20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="100">
-        <v>800</v>
-      </c>
-      <c r="C5" s="101">
-        <v>8.0275800000000002E-16</v>
-      </c>
-      <c r="D5" s="45">
-        <v>1.9150080939776758E-18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="B5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1.35142E-17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6.7797935071800052E-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="100">
-        <v>1600</v>
-      </c>
-      <c r="C6" s="101">
-        <v>3.1923000000000002E-15</v>
-      </c>
-      <c r="D6" s="45">
-        <v>6.8754636207313708E-18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="100">
-        <v>3200</v>
-      </c>
-      <c r="C7" s="101">
-        <v>1.2760599999999998E-14</v>
-      </c>
-      <c r="D7" s="45">
-        <v>4.2668958271792952E-17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="103">
-        <v>6400</v>
-      </c>
-      <c r="C8" s="104">
-        <v>5.0896799999999998E-14</v>
-      </c>
-      <c r="D8" s="48">
-        <v>1.8226069241611145E-16</v>
+      <c r="B6" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1.3521200000000002E-17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6.0333738488510726E-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="98">
+        <f>AVERAGE(E2:E6)</f>
+        <v>1.3511439999999999E-17</v>
       </c>
     </row>
   </sheetData>

--- a/post/渗透率测试.xlsx
+++ b/post/渗透率测试.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="液体" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="压强梯度-弥散系数" sheetId="2" r:id="rId4"/>
+    <sheet name="J法" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="压强梯度-弥散系数" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +223,10 @@
     <t>P-17-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>甲烷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -779,13 +784,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1120,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,9 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O62" activeCellId="3" sqref="J2:L2 O2:P2 J62:L66 O62:P66"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1404,35 +1498,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="95" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="95" t="s">
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="97"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="113"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -1483,13 +1577,13 @@
       <c r="P2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="93" t="s">
+      <c r="Q2" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="94"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="110"/>
       <c r="V2" s="69" t="s">
         <v>20</v>
       </c>
@@ -5874,7 +5968,7 @@
         <v>0.1</v>
       </c>
       <c r="L62" s="10">
-        <f>J62-K62</f>
+        <f t="shared" ref="L62:L69" si="35">J62-K62</f>
         <v>0.1</v>
       </c>
       <c r="M62" s="64">
@@ -5946,7 +6040,7 @@
         <v>0.1</v>
       </c>
       <c r="L63" s="5">
-        <f>J63-K63</f>
+        <f t="shared" si="35"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="M63" s="61">
@@ -6018,7 +6112,7 @@
         <v>0.1</v>
       </c>
       <c r="L64" s="5">
-        <f>J64-K64</f>
+        <f t="shared" si="35"/>
         <v>0.4</v>
       </c>
       <c r="M64" s="61">
@@ -6055,7 +6149,7 @@
       </c>
       <c r="W64" s="80"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>20</v>
       </c>
@@ -6090,7 +6184,7 @@
         <v>0.1</v>
       </c>
       <c r="L65" s="5">
-        <f>J65-K65</f>
+        <f t="shared" si="35"/>
         <v>0.8</v>
       </c>
       <c r="M65" s="61">
@@ -6127,7 +6221,7 @@
       </c>
       <c r="W65" s="80"/>
     </row>
-    <row r="66" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>20</v>
       </c>
@@ -6162,7 +6256,7 @@
         <v>0.1</v>
       </c>
       <c r="L66" s="6">
-        <f>J66-K66</f>
+        <f t="shared" si="35"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="M66" s="62">
@@ -6198,6 +6292,175 @@
         <v>24</v>
       </c>
       <c r="W66" s="82"/>
+    </row>
+    <row r="67" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>20</v>
+      </c>
+      <c r="B67" s="11">
+        <v>20</v>
+      </c>
+      <c r="C67" s="11">
+        <v>20</v>
+      </c>
+      <c r="D67" s="11">
+        <v>100</v>
+      </c>
+      <c r="E67" s="11">
+        <v>10</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1</v>
+      </c>
+      <c r="G67" s="11">
+        <v>20</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="L67" s="10">
+        <f t="shared" si="35"/>
+        <v>0.1</v>
+      </c>
+      <c r="M67" s="64">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N67" s="37">
+        <v>38.4</v>
+      </c>
+      <c r="O67" s="22">
+        <f t="shared" ref="O67:O69" si="36">AVERAGE(Q67:U67)</f>
+        <v>7.2852600000000003E-17</v>
+      </c>
+      <c r="P67" s="8">
+        <f t="shared" ref="P67" si="37">_xlfn.STDEV.P(Q67:U67)</f>
+        <v>4.2743822945543876E-19</v>
+      </c>
+      <c r="Q67" s="105">
+        <v>7.2952000000000004E-17</v>
+      </c>
+      <c r="R67" s="105">
+        <v>7.3226000000000002E-17</v>
+      </c>
+      <c r="S67" s="105">
+        <v>7.2087000000000002E-17</v>
+      </c>
+      <c r="T67" s="105">
+        <v>7.2738999999999995E-17</v>
+      </c>
+      <c r="U67" s="105">
+        <v>7.3259000000000001E-17</v>
+      </c>
+      <c r="X67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="106">
+        <v>20</v>
+      </c>
+      <c r="B68" s="107">
+        <v>20</v>
+      </c>
+      <c r="C68" s="107">
+        <v>20</v>
+      </c>
+      <c r="D68" s="107">
+        <v>10.011799999999999</v>
+      </c>
+      <c r="E68" s="107">
+        <v>2.6499000000000001</v>
+      </c>
+      <c r="F68" s="107">
+        <v>0.4</v>
+      </c>
+      <c r="G68" s="107">
+        <v>4.3262999999999998</v>
+      </c>
+      <c r="H68" s="107">
+        <v>0.94730999999999999</v>
+      </c>
+      <c r="I68" s="107">
+        <v>0.33</v>
+      </c>
+      <c r="J68" s="107">
+        <v>0.2</v>
+      </c>
+      <c r="K68" s="108">
+        <v>0.1</v>
+      </c>
+      <c r="L68" s="106">
+        <f t="shared" si="35"/>
+        <v>0.1</v>
+      </c>
+      <c r="M68">
+        <v>27.2209</v>
+      </c>
+      <c r="N68">
+        <v>5.4919000000000002</v>
+      </c>
+      <c r="O68" s="22" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="106">
+        <v>20</v>
+      </c>
+      <c r="B69" s="107">
+        <v>20</v>
+      </c>
+      <c r="C69" s="107">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>6.5426000000000002</v>
+      </c>
+      <c r="E69">
+        <v>2.0114999999999998</v>
+      </c>
+      <c r="F69">
+        <v>0.3</v>
+      </c>
+      <c r="G69">
+        <v>4.3475000000000001</v>
+      </c>
+      <c r="H69">
+        <v>0.99567000000000005</v>
+      </c>
+      <c r="I69">
+        <v>0.377</v>
+      </c>
+      <c r="J69">
+        <v>0.2</v>
+      </c>
+      <c r="K69">
+        <v>0.1</v>
+      </c>
+      <c r="L69" s="106">
+        <f t="shared" si="35"/>
+        <v>0.1</v>
+      </c>
+      <c r="M69">
+        <v>16.857800000000001</v>
+      </c>
+      <c r="N69">
+        <v>3.4285999999999999</v>
+      </c>
+      <c r="O69" s="22" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6214,9 +6477,1130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="113"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15">
+        <v>100</v>
+      </c>
+      <c r="E3" s="15">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="14">
+        <f t="shared" ref="L3:L6" si="0">J3-K3</f>
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="60">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N3" s="36">
+        <v>38.4</v>
+      </c>
+      <c r="O3" s="20">
+        <f>AVERAGE(Q3:U3)</f>
+        <v>1.3586E-17</v>
+      </c>
+      <c r="P3" s="16">
+        <f>_xlfn.STDEV.P(Q3:U3)</f>
+        <v>1.2209491389898271E-18</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>1.2827E-17</v>
+      </c>
+      <c r="R3" s="17">
+        <v>1.1895E-17</v>
+      </c>
+      <c r="S3" s="17">
+        <v>1.5131000000000001E-17</v>
+      </c>
+      <c r="T3" s="17">
+        <v>1.3257E-17</v>
+      </c>
+      <c r="U3" s="17">
+        <v>1.482E-17</v>
+      </c>
+      <c r="V3" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="84"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="61">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N4" s="18">
+        <v>38.4</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" ref="O4:O6" si="1">AVERAGE(Q4:U4)</f>
+        <v>1.3322200000000001E-17</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P6" si="2">_xlfn.STDEV.P(Q4:U4)</f>
+        <v>4.0368671020978621E-19</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.392E-17</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1.3098000000000001E-17</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1.2827E-17</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1.3661E-17</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1.3105000000000001E-17</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="80"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="61">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N5" s="18">
+        <v>38.4</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3312000000000001E-17</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>5.3814942162934607E-19</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1.27E-17</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1.3971999999999999E-17</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1.2692E-17</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1.381E-17</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1.3385999999999999E-17</v>
+      </c>
+      <c r="V5" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="80"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55">
+        <v>10</v>
+      </c>
+      <c r="B6" s="56">
+        <v>5</v>
+      </c>
+      <c r="C6" s="56">
+        <v>5</v>
+      </c>
+      <c r="D6" s="56">
+        <v>100</v>
+      </c>
+      <c r="E6" s="56">
+        <v>10</v>
+      </c>
+      <c r="F6" s="56">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56">
+        <v>20</v>
+      </c>
+      <c r="H6" s="56">
+        <v>1</v>
+      </c>
+      <c r="I6" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="55">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="63">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N6" s="58">
+        <v>38.4</v>
+      </c>
+      <c r="O6" s="33">
+        <f t="shared" si="1"/>
+        <v>1.3550000000000001E-17</v>
+      </c>
+      <c r="P6" s="34">
+        <f t="shared" si="2"/>
+        <v>2.8635153221172E-19</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1.4119999999999999E-17</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1.3416E-17</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1.3451E-17</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1.3398000000000001E-17</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1.3364999999999999E-17</v>
+      </c>
+      <c r="V6" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="82"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="98">
+        <v>5</v>
+      </c>
+      <c r="B7" s="99">
+        <v>3</v>
+      </c>
+      <c r="C7" s="99">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>100</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" ref="L7:L10" si="3">J7-K7</f>
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="60">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N7" s="59">
+        <v>38.4</v>
+      </c>
+      <c r="O7" s="97">
+        <f t="shared" ref="O7:O10" si="4">AVERAGE(Q7:U7)</f>
+        <v>1.0548939999999998E-17</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ref="P7:P10" si="5">_xlfn.STDEV.P(Q7:U7)</f>
+        <v>2.3941436979429626E-18</v>
+      </c>
+      <c r="Q7" s="105">
+        <v>8.4837999999999995E-18</v>
+      </c>
+      <c r="R7" s="105">
+        <v>8.6378999999999993E-18</v>
+      </c>
+      <c r="S7" s="105">
+        <v>1.5084000000000001E-17</v>
+      </c>
+      <c r="T7" s="105">
+        <v>1.0368999999999999E-17</v>
+      </c>
+      <c r="U7" s="105">
+        <v>1.0170000000000001E-17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="100">
+        <v>5</v>
+      </c>
+      <c r="B8" s="96">
+        <v>4</v>
+      </c>
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="61">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N8" s="101">
+        <v>38.4</v>
+      </c>
+      <c r="O8" s="97">
+        <f t="shared" si="4"/>
+        <v>1.4807199999999999E-17</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9062659205892546E-18</v>
+      </c>
+      <c r="Q8" s="105">
+        <v>1.2013000000000001E-17</v>
+      </c>
+      <c r="R8" s="105">
+        <v>1.5892000000000001E-17</v>
+      </c>
+      <c r="S8" s="105">
+        <v>1.3569000000000001E-17</v>
+      </c>
+      <c r="T8" s="105">
+        <v>1.4995000000000001E-17</v>
+      </c>
+      <c r="U8" s="105">
+        <v>1.7566999999999999E-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="100">
+        <v>5</v>
+      </c>
+      <c r="B9" s="96">
+        <v>5</v>
+      </c>
+      <c r="C9" s="96">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="61">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N9" s="101">
+        <v>38.4</v>
+      </c>
+      <c r="O9" s="97">
+        <f t="shared" si="4"/>
+        <v>1.3953599999999999E-17</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1385808008217957E-18</v>
+      </c>
+      <c r="Q9" s="105">
+        <v>1.3673E-17</v>
+      </c>
+      <c r="R9" s="105">
+        <v>1.4568000000000001E-17</v>
+      </c>
+      <c r="S9" s="105">
+        <v>1.2479E-17</v>
+      </c>
+      <c r="T9" s="105">
+        <v>1.5789000000000001E-17</v>
+      </c>
+      <c r="U9" s="105">
+        <v>1.3259E-17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="102">
+        <v>5</v>
+      </c>
+      <c r="B10" s="103">
+        <v>5</v>
+      </c>
+      <c r="C10" s="103">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>100</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N10" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O10" s="97">
+        <f t="shared" si="4"/>
+        <v>1.3039800000000001E-17</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="5"/>
+        <v>9.9861712382674422E-19</v>
+      </c>
+      <c r="Q10" s="105">
+        <v>1.3093E-17</v>
+      </c>
+      <c r="R10" s="105">
+        <v>1.3059E-17</v>
+      </c>
+      <c r="S10" s="105">
+        <v>1.3466999999999999E-17</v>
+      </c>
+      <c r="T10" s="105">
+        <v>1.1261E-17</v>
+      </c>
+      <c r="U10" s="105">
+        <v>1.4318999999999999E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="102">
+        <v>5</v>
+      </c>
+      <c r="B11" s="103">
+        <v>5</v>
+      </c>
+      <c r="C11" s="103">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" ref="L11:L14" si="6">J11-K11</f>
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N11" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O11" s="97">
+        <f t="shared" ref="O11:O13" si="7">AVERAGE(Q11:U11)</f>
+        <v>1.33226E-17</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" ref="P11:P13" si="8">_xlfn.STDEV.P(Q11:U11)</f>
+        <v>8.0337403493018173E-19</v>
+      </c>
+      <c r="Q11" s="105">
+        <v>1.3186000000000001E-17</v>
+      </c>
+      <c r="R11" s="105">
+        <v>1.4482E-17</v>
+      </c>
+      <c r="S11" s="105">
+        <v>1.2787E-17</v>
+      </c>
+      <c r="T11" s="105">
+        <v>1.2224999999999999E-17</v>
+      </c>
+      <c r="U11" s="105">
+        <v>1.3933000000000001E-17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="102">
+        <v>5</v>
+      </c>
+      <c r="B12" s="103">
+        <v>5</v>
+      </c>
+      <c r="C12" s="103">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N12" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O12" s="97">
+        <f t="shared" si="7"/>
+        <v>1.3366000000000001E-17</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="8"/>
+        <v>7.8759075667506426E-19</v>
+      </c>
+      <c r="Q12" s="105">
+        <v>1.3858E-17</v>
+      </c>
+      <c r="R12" s="105">
+        <v>1.22E-17</v>
+      </c>
+      <c r="S12" s="105">
+        <v>1.364E-17</v>
+      </c>
+      <c r="T12" s="105">
+        <v>1.4386E-17</v>
+      </c>
+      <c r="U12" s="105">
+        <v>1.2746E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="102">
+        <v>5</v>
+      </c>
+      <c r="B13" s="103">
+        <v>5</v>
+      </c>
+      <c r="C13" s="103">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>100</v>
+      </c>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N13" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O13" s="97">
+        <f t="shared" si="7"/>
+        <v>1.3905000000000001E-17</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="8"/>
+        <v>5.0512216344167657E-19</v>
+      </c>
+      <c r="Q13" s="105">
+        <v>1.3595E-17</v>
+      </c>
+      <c r="R13" s="105">
+        <v>1.4506E-17</v>
+      </c>
+      <c r="S13" s="105">
+        <v>1.4074999999999999E-17</v>
+      </c>
+      <c r="T13" s="105">
+        <v>1.4259000000000001E-17</v>
+      </c>
+      <c r="U13" s="105">
+        <v>1.309E-17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="102">
+        <v>10</v>
+      </c>
+      <c r="B14" s="103">
+        <v>10</v>
+      </c>
+      <c r="C14" s="103">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>100</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N14" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O14" s="97">
+        <f t="shared" ref="O14:O17" si="9">AVERAGE(Q14:U14)</f>
+        <v>1.3341499999999999E-17</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14:P17" si="10">_xlfn.STDEV.P(Q14:U14)</f>
+        <v>5.000000000001129E-22</v>
+      </c>
+      <c r="Q14" s="105">
+        <v>1.3342E-17</v>
+      </c>
+      <c r="R14" s="105">
+        <v>1.3341E-17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="102">
+        <v>10</v>
+      </c>
+      <c r="B15" s="103">
+        <v>10</v>
+      </c>
+      <c r="C15" s="103">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>100</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" ref="L15:L17" si="11">J15-K15</f>
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N15" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O15" s="97">
+        <f t="shared" si="9"/>
+        <v>1.3353E-17</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0000000000002258E-21</v>
+      </c>
+      <c r="Q15" s="105">
+        <v>1.3354E-17</v>
+      </c>
+      <c r="R15" s="105">
+        <v>1.3352E-17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="102">
+        <v>10</v>
+      </c>
+      <c r="B16" s="103">
+        <v>10</v>
+      </c>
+      <c r="C16" s="103">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N16" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O16" s="97">
+        <f t="shared" si="9"/>
+        <v>1.33515E-17</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4999999999995683E-21</v>
+      </c>
+      <c r="Q16" s="105">
+        <v>1.3353E-17</v>
+      </c>
+      <c r="R16" s="105">
+        <v>1.3350000000000001E-17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="102">
+        <v>10</v>
+      </c>
+      <c r="B17" s="103">
+        <v>10</v>
+      </c>
+      <c r="C17" s="103">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="62">
+        <v>621.31610000000001</v>
+      </c>
+      <c r="N17" s="104">
+        <v>38.4</v>
+      </c>
+      <c r="O17" s="97">
+        <f t="shared" si="9"/>
+        <v>1.33575E-17</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="10"/>
+        <v>8.4999999999996081E-21</v>
+      </c>
+      <c r="Q17" s="105">
+        <v>1.3349E-17</v>
+      </c>
+      <c r="R17" s="105">
+        <v>1.3366E-17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="Q2:U2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6348,7 +7732,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E7" s="98">
+      <c r="E7" s="95">
         <f>AVERAGE(E2:E6)</f>
         <v>1.3511439999999999E-17</v>
       </c>
@@ -6360,13 +7744,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D52"/>
-    </sheetView>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7108,7 +8490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
